--- a/Assets/_OriginalData/Excel/Config/Common/ADVideo.xlsx
+++ b/Assets/_OriginalData/Excel/Config/Common/ADVideo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="570"/>
+    <workbookView windowWidth="26145" windowHeight="10440" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,16 +121,16 @@
     <t>默认插屏</t>
   </si>
   <si>
-    <t>Video_GetPropHealth</t>
+    <t>Video_GetEnergy</t>
   </si>
   <si>
     <t>激励获取体力道具</t>
   </si>
   <si>
-    <t>Video_GetPropHint</t>
-  </si>
-  <si>
-    <t>激励获取提示道具</t>
+    <t>Video_GetCoin</t>
+  </si>
+  <si>
+    <t>激励获取金币道具</t>
   </si>
   <si>
     <t>Video_GameRevive</t>
@@ -422,15 +422,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <strike/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1310,8 +1310,8 @@
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
